--- a/src/test/resources/testData/Testdata.xlsx
+++ b/src/test/resources/testData/Testdata.xlsx
@@ -1,27 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karthikaramesh/Documents/Numpy Ninja/LMS Hackathon/Submission doc/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9957E923-C833-6146-B487-AD7FF8DF39A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="2560" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{F6E5D68C-7B8C-0642-9B7E-6B6C909A101B}"/>
+    <workbookView windowWidth="28800" windowHeight="12180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Program" sheetId="1" r:id="rId1"/>
     <sheet name="Batch" sheetId="2" r:id="rId2"/>
     <sheet name="Class" sheetId="3" r:id="rId3"/>
+    <sheet name="Login" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -38,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Class</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Program Name</t>
   </si>
@@ -54,17 +43,60 @@
   <si>
     <t>Number of Classes</t>
   </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Sdet@gmail.com</t>
+  </si>
+  <si>
+    <t>LmsHackathon@2024</t>
+  </si>
+  <si>
+    <t>5hcjask**(nnnn</t>
+  </si>
+  <si>
+    <t>&amp;^bjbjb@BJ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -72,18 +104,339 @@
       <sz val="16"/>
       <color rgb="FF495057"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -91,25 +444,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -158,7 +800,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -191,26 +833,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -243,23 +868,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -421,78 +1029,141 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9495F50F-0AD3-534C-BBFA-5937C20D8514}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B5D65F-79F2-9E47-B153-49CB52F147B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="41.5" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="3" max="3" width="28.5" customWidth="1"/>
-    <col min="4" max="4" width="35.5" customWidth="1"/>
+    <col min="1" max="1" width="41.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="29.5037037037037" customWidth="1"/>
+    <col min="3" max="3" width="28.5037037037037" customWidth="1"/>
+    <col min="4" max="4" width="35.5037037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="20.25" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513B0DE0-FE55-CE45-B46F-738A5542CBF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="18.1259259259259" customWidth="1"/>
+    <col min="2" max="2" width="31.1259259259259" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="Sdet@gmail.com" tooltip="mailto:Sdet@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="LmsHackathon@2024" tooltip="mailto:LmsHackathon@2024"/>
+    <hyperlink ref="A4" r:id="rId1" display="Sdet@gmail.com" tooltip="mailto:Sdet@gmail.com"/>
+    <hyperlink ref="B5" r:id="rId2" display="LmsHackathon@2024" tooltip="mailto:LmsHackathon@2024"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/resources/testData/Testdata.xlsx
+++ b/src/test/resources/testData/Testdata.xlsx
@@ -5,17 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karthikaramesh/Documents/Numpy Ninja/LMS Hackathon/Submission doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karthikaramesh/eclipse-workspace/Team06_LMSPhase2_SeleniumHackers/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9957E923-C833-6146-B487-AD7FF8DF39A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1637F133-EE59-594C-9397-A5FEB8F4E63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="2560" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{F6E5D68C-7B8C-0642-9B7E-6B6C909A101B}"/>
+    <workbookView xWindow="3480" yWindow="2560" windowWidth="27640" windowHeight="16940" xr2:uid="{E2C16CBD-B1C9-DE47-975A-34B2B7E9936C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Program" sheetId="1" r:id="rId1"/>
-    <sheet name="Batch" sheetId="2" r:id="rId2"/>
-    <sheet name="Class" sheetId="3" r:id="rId3"/>
+    <sheet name="Batch" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Class</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Program Name</t>
   </si>
@@ -53,13 +48,31 @@
   </si>
   <si>
     <t>Number of Classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> data driven 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> data driven 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> data driven 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> data driven 4</t>
+  </si>
+  <si>
+    <t>ChatBotTestuk</t>
+  </si>
+  <si>
+    <t>Splunk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -72,6 +85,12 @@
       <sz val="16"/>
       <color rgb="FF495057"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -95,9 +114,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,66 +451,96 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9495F50F-0AD3-534C-BBFA-5937C20D8514}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B5D65F-79F2-9E47-B153-49CB52F147B6}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735F5236-1767-0446-8018-7E26CAB96755}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.5" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="3" max="3" width="28.5" customWidth="1"/>
-    <col min="4" max="4" width="35.5" customWidth="1"/>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" customWidth="1"/>
+    <col min="4" max="4" width="43.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>132</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513B0DE0-FE55-CE45-B46F-738A5542CBF2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>124</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>125</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>126</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testData/Testdata.xlsx
+++ b/src/test/resources/testData/Testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karthikaramesh/eclipse-workspace/Team06_LMSPhase2_SeleniumHackers/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1637F133-EE59-594C-9397-A5FEB8F4E63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5AF813-84AC-5443-AFDC-69BC8CB13476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3480" yWindow="2560" windowWidth="27640" windowHeight="16940" xr2:uid="{E2C16CBD-B1C9-DE47-975A-34B2B7E9936C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Program Name</t>
   </si>
@@ -50,29 +50,17 @@
     <t>Number of Classes</t>
   </si>
   <si>
-    <t xml:space="preserve"> data driven 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> data driven 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> data driven 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> data driven 4</t>
-  </si>
-  <si>
-    <t>ChatBotTestuk</t>
-  </si>
-  <si>
-    <t>Splunk</t>
+    <t>DD 1</t>
+  </si>
+  <si>
+    <t>EDGE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -85,12 +73,6 @@
       <sz val="16"/>
       <color rgb="FF495057"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Menlo"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -114,10 +96,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735F5236-1767-0446-8018-7E26CAB96755}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -482,10 +463,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>132</v>
+        <v>9087</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -494,53 +475,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>124</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>125</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>126</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+    <row r="9" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testData/Testdata.xlsx
+++ b/src/test/resources/testData/Testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karthikaramesh/eclipse-workspace/Team06_LMSPhase2_SeleniumHackers/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5AF813-84AC-5443-AFDC-69BC8CB13476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB07385D-321A-CD44-AEBC-BF553CD2DEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3480" yWindow="2560" windowWidth="27640" windowHeight="16940" xr2:uid="{E2C16CBD-B1C9-DE47-975A-34B2B7E9936C}"/>
   </bookViews>
@@ -466,7 +466,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>9087</v>
+        <v>222</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>

--- a/src/test/resources/testData/Testdata.xlsx
+++ b/src/test/resources/testData/Testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karthikaramesh/eclipse-workspace/Team06_LMSPhase2_SeleniumHackers/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB07385D-321A-CD44-AEBC-BF553CD2DEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129CAC22-D9DB-634C-BC01-1433F439EB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3480" yWindow="2560" windowWidth="27640" windowHeight="16940" xr2:uid="{E2C16CBD-B1C9-DE47-975A-34B2B7E9936C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Program Name</t>
   </si>
@@ -54,13 +54,19 @@
   </si>
   <si>
     <t>EDGE</t>
+  </si>
+  <si>
+    <t>DD 2</t>
+  </si>
+  <si>
+    <t>DD 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -74,6 +80,12 @@
       <color rgb="FF495057"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -436,7 +448,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -475,6 +487,34 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>223</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>224</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
     <row r="9" spans="1:4" ht="20" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
@@ -482,6 +522,7 @@
       <c r="D9" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/testData/Testdata.xlsx
+++ b/src/test/resources/testData/Testdata.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karthikaramesh/eclipse-workspace/Team06_LMSPhase2_SeleniumHackers/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129CAC22-D9DB-634C-BC01-1433F439EB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839E9DBB-0A63-8946-BE79-62C853B49424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3480" yWindow="2560" windowWidth="27640" windowHeight="16940" xr2:uid="{E2C16CBD-B1C9-DE47-975A-34B2B7E9936C}"/>
   </bookViews>
   <sheets>
     <sheet name="Batch" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="2" r:id="rId2"/>
+    <sheet name="Program" sheetId="3" r:id="rId3"/>
+    <sheet name="Class" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Program Name</t>
   </si>
@@ -53,20 +56,53 @@
     <t>DD 1</t>
   </si>
   <si>
-    <t>EDGE</t>
-  </si>
-  <si>
-    <t>DD 2</t>
-  </si>
-  <si>
-    <t>DD 3</t>
+    <t>username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Sdet@gmail.com</t>
+  </si>
+  <si>
+    <t>LmsHackathon@2024</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>5hcjask**(nnnn</t>
+  </si>
+  <si>
+    <t>&amp;^bjbjb@BJ</t>
+  </si>
+  <si>
+    <t>Batch</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>LMS - Learning Management System</t>
+  </si>
+  <si>
+    <t>LMS</t>
+  </si>
+  <si>
+    <t>Playwrite</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -87,6 +123,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF495057"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -105,14 +162,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -445,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735F5236-1767-0446-8018-7E26CAB96755}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -473,12 +535,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
+    <row r="2" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B2">
-        <v>222</v>
+        <v>789</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -487,42 +549,145 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>223</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>224</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+    <row r="7" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D2CBD6-3AEE-1648-BC08-08D118A5B666}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="51" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" tooltip="mailto:Sdet@gmail.com" xr:uid="{17779485-2D92-DF4B-AF71-885556CCFD29}"/>
+    <hyperlink ref="B2" r:id="rId2" tooltip="mailto:LmsHackathon@2024" xr:uid="{C2A308ED-9E76-F541-99C3-10461994CED6}"/>
+    <hyperlink ref="A4" r:id="rId3" tooltip="mailto:Sdet@gmail.com" xr:uid="{897E0B82-8330-A34B-ACB4-ED49D71A832A}"/>
+    <hyperlink ref="B5" r:id="rId4" tooltip="mailto:LmsHackathon@2024" xr:uid="{5D2A466B-D09A-6B42-A948-44086D20601A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81690B68-752F-1545-ADAC-8F651F2D421E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75742CB7-6785-3440-AF38-98A56A9BB621}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/testData/Testdata.xlsx
+++ b/src/test/resources/testData/Testdata.xlsx
@@ -76,22 +76,22 @@
     <t>Name</t>
   </si>
   <si>
-    <t>OOPS</t>
+    <t>Azure</t>
   </si>
   <si>
-    <t>JavaOOPS</t>
+    <t>cloud</t>
   </si>
   <si>
-    <t>Docker</t>
+    <t>Cloud</t>
   </si>
   <si>
-    <t>containers</t>
+    <t>AWS</t>
   </si>
   <si>
-    <t>shell</t>
+    <t>AppleUI</t>
   </si>
   <si>
-    <t>Scripting</t>
+    <t>icloud</t>
   </si>
 </sst>
 </file>
@@ -2585,7 +2585,7 @@
       <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>25</v>
       </c>
     </row>
